--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354265</v>
+        <v>431889.0009836452</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589806</v>
+        <v>3840854.495975447</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183876</v>
+        <v>10457196.99249323</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.2853856434421</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>58.07370746369907</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,22 +980,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>122.5377819982128</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>146.9483967771029</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.80371536444981</v>
+        <v>151.9428382717947</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>38.39130090140846</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2757381414389</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>315.4235342946199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>170.5416854391145</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H12" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>81.60790234774441</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>227.9017882635736</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>290.9867467352142</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>38.05191990147986</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.16578368351773</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262353</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>366.307821565946</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>70.56092885173899</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>88.73002741957576</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.07564509899638</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>246.8357870613455</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>338.4076618468182</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.40240323824168</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>94.47030081517305</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>263.7394182836353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>313.1642829642375</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.623879638558</v>
+        <v>7.242727921694335</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>51.47710011512173</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>136.1107625437487</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.6390067882885</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>232.6900396322376</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>89.19463769372649</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>119.6112442511071</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.6390067882885</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>232.6900396322376</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>324.7314375419465</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>119.6763813058195</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>198.8882691671122</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>225.5650375952951</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>353.533329267815</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>297.720665754369</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.28604738509098</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>97.55568174449517</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>184.5582463098971</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>30.32609604477764</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>225.5650375952951</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>151.0482174230064</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>180.2537197751626</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>139.2952394218769</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.4458084395873</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>49.22623797673981</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>225.5650375952951</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>171.3818091435052</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>92.65595244985008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.56242946898472</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0137000398793</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2256951695733</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>16.39856530802294</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4369,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,10 +4421,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>819.3245181314433</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485.4562706347935</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="C6" t="n">
-        <v>485.4562706347935</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="D6" t="n">
-        <v>485.4562706347935</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="E6" t="n">
-        <v>485.4562706347935</v>
+        <v>279.3916219496347</v>
       </c>
       <c r="F6" t="n">
-        <v>361.6807332628614</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="G6" t="n">
-        <v>222.9499078454769</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>656.549124736862</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>428.3260316108859</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>428.3260316108859</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>475.3318284112885</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="C8" t="n">
-        <v>475.3318284112885</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>444.5765064295815</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>444.5765064295815</v>
       </c>
       <c r="W8" t="n">
-        <v>509.4769954460863</v>
+        <v>444.5765064295815</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>444.5765064295815</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>444.5765064295815</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.5807722530562</v>
+        <v>470.6429706088516</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>470.6429706088516</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>431.8638787892471</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>339.9440834239264</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="U9" t="n">
-        <v>588.181657128899</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="V9" t="n">
-        <v>353.0295488971563</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="W9" t="n">
-        <v>109.5807722530562</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="X9" t="n">
-        <v>109.5807722530562</v>
+        <v>470.6429706088516</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.5807722530562</v>
+        <v>470.6429706088516</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2381.354273725794</v>
+        <v>1071.886434413042</v>
       </c>
       <c r="C11" t="n">
-        <v>2062.744643125167</v>
+        <v>702.9239174726308</v>
       </c>
       <c r="D11" t="n">
-        <v>1704.478944518417</v>
+        <v>344.6582188658803</v>
       </c>
       <c r="E11" t="n">
-        <v>1318.690691920173</v>
+        <v>344.6582188658803</v>
       </c>
       <c r="F11" t="n">
-        <v>907.7047871305651</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G11" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H11" t="n">
         <v>172.393890139502</v>
@@ -5041,25 +5041,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.36013938198</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M11" t="n">
-        <v>1219.059552207387</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N11" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O11" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P11" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5071,22 +5071,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U11" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V11" t="n">
-        <v>2381.354273725794</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W11" t="n">
-        <v>2381.354273725794</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X11" t="n">
-        <v>2381.354273725794</v>
+        <v>1462.025766388854</v>
       </c>
       <c r="Y11" t="n">
-        <v>2381.354273725794</v>
+        <v>1071.886434413042</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>336.96315204527</v>
       </c>
       <c r="G12" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
         <v>52.70091953961285</v>
@@ -5129,16 +5129,16 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M12" t="n">
-        <v>1232.27200203395</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O12" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q12" t="n">
         <v>2635.045976980643</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>450.6299366358211</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>450.6299366358211</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>450.6299366358211</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>303.7399891379107</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>135.1331441332941</v>
       </c>
       <c r="H13" t="n">
         <v>52.70091953961285</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T13" t="n">
-        <v>827.0064043113226</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U13" t="n">
-        <v>596.8025777824604</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V13" t="n">
-        <v>342.1180895765735</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>619.566119563728</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1484.841046679629</v>
+        <v>880.774606092793</v>
       </c>
       <c r="C14" t="n">
-        <v>1115.878529739218</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D14" t="n">
-        <v>757.6128311324671</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E14" t="n">
-        <v>757.6128311324671</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F14" t="n">
-        <v>346.6269263428596</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G14" t="n">
         <v>52.70091953961285</v>
@@ -5284,19 +5284,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M14" t="n">
-        <v>1219.059552207387</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N14" t="n">
-        <v>1413.39376509937</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O14" t="n">
-        <v>1960.554969866447</v>
+        <v>2125.816020304062</v>
       </c>
       <c r="P14" t="n">
-        <v>2389.870016205742</v>
+        <v>2555.131066643356</v>
       </c>
       <c r="Q14" t="n">
         <v>2635.045976980643</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W14" t="n">
-        <v>2635.045976980643</v>
+        <v>1640.840204417995</v>
       </c>
       <c r="X14" t="n">
-        <v>2261.580218719563</v>
+        <v>1267.374446156915</v>
       </c>
       <c r="Y14" t="n">
-        <v>1871.440886743751</v>
+        <v>1267.374446156915</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E15" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F15" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G15" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L15" t="n">
-        <v>914.5356689828393</v>
+        <v>376.1975890755593</v>
       </c>
       <c r="M15" t="n">
-        <v>1094.033005337444</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.206884640153</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O15" t="n">
-        <v>2295.642893392876</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R15" t="n">
         <v>2613.934077382829</v>
@@ -5390,19 +5390,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V15" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961285</v>
+        <v>417.3683885830656</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>417.3683885830656</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>417.3683885830656</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>269.4552950006724</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>122.5653475027621</v>
       </c>
       <c r="G16" t="n">
         <v>52.70091953961285</v>
@@ -5466,22 +5466,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>885.9547542047806</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U16" t="n">
-        <v>596.8025777824604</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V16" t="n">
-        <v>342.1180895765735</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W16" t="n">
-        <v>52.70091953961285</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961285</v>
+        <v>599.0168534133053</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961285</v>
+        <v>599.0168534133053</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1577.748676105878</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="C17" t="n">
-        <v>1577.748676105878</v>
+        <v>1310.31397020635</v>
       </c>
       <c r="D17" t="n">
-        <v>1219.482977499127</v>
+        <v>952.0482715996</v>
       </c>
       <c r="E17" t="n">
-        <v>833.6947249008831</v>
+        <v>952.0482715996</v>
       </c>
       <c r="F17" t="n">
-        <v>422.7088201112755</v>
+        <v>541.0623668099925</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>123.9745850464199</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>123.9745850464199</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V17" t="n">
-        <v>2303.983089637072</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W17" t="n">
-        <v>1951.214434366958</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X17" t="n">
-        <v>1577.748676105878</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="Y17" t="n">
-        <v>1577.748676105878</v>
+        <v>1679.276487146762</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L18" t="n">
-        <v>638.0181737180123</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.27200203395</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5612,10 +5612,10 @@
         <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R18" t="n">
         <v>2613.934077382829</v>
@@ -5627,7 +5627,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
@@ -5639,7 +5639,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>371.4244039565652</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="C19" t="n">
-        <v>371.4244039565652</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="D19" t="n">
-        <v>221.3077645442295</v>
+        <v>523.4755012268574</v>
       </c>
       <c r="E19" t="n">
-        <v>221.3077645442295</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="F19" t="n">
-        <v>221.3077645442295</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5697,28 +5697,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R19" t="n">
-        <v>1025.286464535325</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>817.8461797877304</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>592.2169831000954</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>592.2169831000954</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V19" t="n">
-        <v>592.2169831000954</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W19" t="n">
-        <v>592.2169831000954</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X19" t="n">
-        <v>592.2169831000954</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y19" t="n">
-        <v>371.4244039565652</v>
+        <v>763.218430961997</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1174.475262327024</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="C20" t="n">
-        <v>805.5127453866126</v>
+        <v>719.1177791429284</v>
       </c>
       <c r="D20" t="n">
-        <v>805.5127453866126</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E20" t="n">
-        <v>805.5127453866126</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F20" t="n">
-        <v>394.526840597005</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G20" t="n">
         <v>52.70091953961285</v>
@@ -5764,7 +5764,7 @@
         <v>970.8360002400555</v>
       </c>
       <c r="N20" t="n">
-        <v>1598.143668299902</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
         <v>1960.554969866447</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V20" t="n">
-        <v>2303.983089637072</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W20" t="n">
-        <v>1951.214434366958</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X20" t="n">
-        <v>1951.214434366958</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y20" t="n">
-        <v>1561.075102391146</v>
+        <v>719.1177791429284</v>
       </c>
     </row>
     <row r="21">
@@ -5837,16 +5837,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4113519543016</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1483.956701421406</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N21" t="n">
-        <v>2136.130580724115</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
         <v>2404.332520920175</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.510068819301</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>395.510068819301</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
         <v>52.70091953961285</v>
@@ -5940,22 +5940,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.635600998958</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V22" t="n">
-        <v>797.9511127930708</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="W22" t="n">
-        <v>797.9511127930708</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="X22" t="n">
-        <v>797.9511127930708</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="Y22" t="n">
-        <v>577.1585336495407</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1484.841046679629</v>
+        <v>1702.583387840661</v>
       </c>
       <c r="C23" t="n">
-        <v>1115.878529739218</v>
+        <v>1702.583387840661</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.878529739218</v>
+        <v>1702.583387840661</v>
       </c>
       <c r="E23" t="n">
-        <v>730.0902771409733</v>
+        <v>1316.795135242417</v>
       </c>
       <c r="F23" t="n">
-        <v>319.1043723513657</v>
+        <v>905.8092304528095</v>
       </c>
       <c r="G23" t="n">
-        <v>52.70091953961285</v>
+        <v>488.721448689237</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I23" t="n">
         <v>52.70091953961285</v>
@@ -5995,13 +5995,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M23" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N23" t="n">
-        <v>1598.143668299902</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O23" t="n">
         <v>1960.554969866447</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V23" t="n">
-        <v>2635.045976980643</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W23" t="n">
-        <v>2635.045976980643</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="X23" t="n">
-        <v>2261.580218719563</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="Y23" t="n">
-        <v>1871.440886743751</v>
+        <v>2089.183227904783</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K24" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L24" t="n">
-        <v>519.3589218611164</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M24" t="n">
-        <v>778.7548643839058</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N24" t="n">
         <v>1430.928743686615</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>353.5804152337399</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="C25" t="n">
-        <v>184.644232305833</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="D25" t="n">
-        <v>184.644232305833</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="E25" t="n">
-        <v>184.644232305833</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="F25" t="n">
-        <v>184.644232305833</v>
+        <v>60.01680632920309</v>
       </c>
       <c r="G25" t="n">
         <v>52.70091953961285</v>
@@ -6180,19 +6180,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U25" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V25" t="n">
-        <v>1052.635600998958</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W25" t="n">
-        <v>763.218430961997</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X25" t="n">
-        <v>535.2288800639797</v>
+        <v>280.8093854727332</v>
       </c>
       <c r="Y25" t="n">
-        <v>535.2288800639797</v>
+        <v>60.01680632920309</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>880.774606092793</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="C26" t="n">
-        <v>880.774606092793</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="D26" t="n">
-        <v>880.774606092793</v>
+        <v>1318.559929514392</v>
       </c>
       <c r="E26" t="n">
-        <v>880.774606092793</v>
+        <v>932.7716769161482</v>
       </c>
       <c r="F26" t="n">
-        <v>469.7887013031854</v>
+        <v>521.7857721265407</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>104.6979903629681</v>
       </c>
       <c r="H26" t="n">
         <v>52.70091953961285</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2478.830939477471</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V26" t="n">
-        <v>2147.7680521339</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W26" t="n">
-        <v>1794.999396863786</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="X26" t="n">
-        <v>1657.513778132726</v>
+        <v>1676.825628121143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1267.374446156915</v>
+        <v>1676.825628121143</v>
       </c>
     </row>
     <row r="27">
@@ -6311,13 +6311,13 @@
         <v>500.7885757023182</v>
       </c>
       <c r="L27" t="n">
-        <v>638.0181737180121</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.563523185117</v>
+        <v>1184.647451923041</v>
       </c>
       <c r="N27" t="n">
-        <v>1477.220264837782</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O27" t="n">
         <v>1980.364752439338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2232.604933006873</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C28" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D28" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E28" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F28" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G28" t="n">
-        <v>1895.061905074349</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H28" t="n">
-        <v>1740.807261974114</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I28" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L28" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M28" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N28" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O28" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P28" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q28" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R28" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>2635.045976980643</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V28" t="n">
-        <v>2635.045976980643</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W28" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X28" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y28" t="n">
-        <v>2414.253397837113</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1576.703292474627</v>
+        <v>938.9782976037698</v>
       </c>
       <c r="C29" t="n">
-        <v>1207.740775534215</v>
+        <v>848.882703973743</v>
       </c>
       <c r="D29" t="n">
-        <v>849.4750769274647</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="E29" t="n">
-        <v>463.6868243292204</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="F29" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
         <v>52.70091953961285</v>
@@ -6493,22 +6493,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U29" t="n">
-        <v>2381.354273725794</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V29" t="n">
-        <v>2050.291386382223</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="W29" t="n">
-        <v>1697.522731112109</v>
+        <v>2089.183227904783</v>
       </c>
       <c r="X29" t="n">
-        <v>1697.522731112109</v>
+        <v>1715.717469643703</v>
       </c>
       <c r="Y29" t="n">
-        <v>1576.703292474627</v>
+        <v>1325.578137667891</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L30" t="n">
-        <v>886.4908637115411</v>
+        <v>638.0181737180121</v>
       </c>
       <c r="M30" t="n">
-        <v>1168.678560467868</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N30" t="n">
-        <v>1820.852439770577</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439338</v>
+        <v>2026.656273590504</v>
       </c>
       <c r="P30" t="n">
         <v>2404.332520920174</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2232.604933006873</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C31" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D31" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E31" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F31" t="n">
-        <v>2063.668750078966</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>1895.061905074349</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>1740.807261974114</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L31" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M31" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N31" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O31" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P31" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>2635.045976980643</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V31" t="n">
-        <v>2635.045976980643</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W31" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X31" t="n">
-        <v>2635.045976980643</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y31" t="n">
-        <v>2414.253397837113</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.748676105878</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.786159165466</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D32" t="n">
-        <v>1208.786159165466</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E32" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F32" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G32" t="n">
         <v>52.70091953961285</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V32" t="n">
-        <v>2303.983089637072</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W32" t="n">
-        <v>1951.214434366958</v>
+        <v>2357.945705835229</v>
       </c>
       <c r="X32" t="n">
-        <v>1577.748676105878</v>
+        <v>1984.479947574149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1577.748676105878</v>
+        <v>1594.340615598337</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180121</v>
       </c>
       <c r="M33" t="n">
-        <v>1184.647451923042</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.928743686615</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439338</v>
+        <v>2026.656273590504</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R33" t="n">
         <v>2613.934077382829</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1803.718140525914</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C34" t="n">
-        <v>1803.718140525914</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D34" t="n">
-        <v>1803.718140525914</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E34" t="n">
-        <v>1803.718140525914</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F34" t="n">
-        <v>1803.718140525914</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L34" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M34" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N34" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O34" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P34" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>2434.148735397701</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>2434.148735397701</v>
+        <v>824.7921286804777</v>
       </c>
       <c r="V34" t="n">
-        <v>2434.148735397701</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W34" t="n">
-        <v>2434.148735397701</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X34" t="n">
-        <v>2206.159184499684</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y34" t="n">
-        <v>1985.366605356154</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1273.55221434229</v>
+        <v>1877.43123768106</v>
       </c>
       <c r="C35" t="n">
-        <v>1273.55221434229</v>
+        <v>1508.468720740648</v>
       </c>
       <c r="D35" t="n">
-        <v>915.2865157355393</v>
+        <v>1150.203022133898</v>
       </c>
       <c r="E35" t="n">
-        <v>529.498263137295</v>
+        <v>764.4147695356537</v>
       </c>
       <c r="F35" t="n">
-        <v>172.393890139502</v>
+        <v>353.4288647460461</v>
       </c>
       <c r="G35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M35" t="n">
-        <v>1216.914953624649</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N35" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P35" t="n">
         <v>2389.870016205742</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2381.354273725794</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V35" t="n">
-        <v>2050.291386382223</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W35" t="n">
-        <v>2050.291386382223</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="X35" t="n">
-        <v>2050.291386382223</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="Y35" t="n">
-        <v>1660.152054406411</v>
+        <v>2264.031077745182</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J36" t="n">
         <v>171.3601713965085</v>
@@ -7022,16 +7022,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>981.6503486508086</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M36" t="n">
-        <v>1622.195698117913</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.852439770578</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7040,7 +7040,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.7878360902098</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C37" t="n">
-        <v>132.7878360902098</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D37" t="n">
-        <v>132.7878360902098</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E37" t="n">
-        <v>132.7878360902098</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F37" t="n">
-        <v>132.7878360902098</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T37" t="n">
-        <v>1052.635600998958</v>
+        <v>746.6542235801558</v>
       </c>
       <c r="U37" t="n">
-        <v>1052.635600998958</v>
+        <v>457.5020471578355</v>
       </c>
       <c r="V37" t="n">
-        <v>1052.635600998958</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="W37" t="n">
-        <v>763.218430961997</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="X37" t="n">
-        <v>535.2288800639797</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="Y37" t="n">
-        <v>314.4363009204495</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1404.860064887974</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="C38" t="n">
-        <v>1035.897547947563</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="D38" t="n">
-        <v>849.4750769274647</v>
+        <v>1349.323112167423</v>
       </c>
       <c r="E38" t="n">
-        <v>463.6868243292204</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F38" t="n">
-        <v>52.70091953961286</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G38" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
         <v>241.3408185533492</v>
@@ -7180,16 +7180,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>964.3339206741936</v>
       </c>
       <c r="M38" t="n">
-        <v>970.8360002400555</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P38" t="n">
         <v>2389.870016205742</v>
@@ -7210,16 +7210,16 @@
         <v>2478.830939477471</v>
       </c>
       <c r="V38" t="n">
-        <v>2147.7680521339</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W38" t="n">
-        <v>1794.999396863786</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="X38" t="n">
-        <v>1794.999396863786</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1404.860064887974</v>
+        <v>1735.922952231545</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,13 +7244,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
         <v>171.3601713965085</v>
@@ -7259,16 +7259,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4113519543018</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M39" t="n">
-        <v>1483.956701421406</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N39" t="n">
-        <v>2136.130580724116</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O39" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,7 +7277,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7365,19 +7365,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>824.7921286804777</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V40" t="n">
-        <v>570.1076404745909</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W40" t="n">
-        <v>280.6904704376302</v>
+        <v>900.0616440060219</v>
       </c>
       <c r="X40" t="n">
-        <v>52.70091953961286</v>
+        <v>900.0616440060219</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961286</v>
+        <v>679.2690648624917</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>796.7548707446076</v>
+        <v>1389.815239953571</v>
       </c>
       <c r="C41" t="n">
-        <v>796.7548707446076</v>
+        <v>1389.815239953571</v>
       </c>
       <c r="D41" t="n">
-        <v>438.4891721378571</v>
+        <v>1031.549541346821</v>
       </c>
       <c r="E41" t="n">
-        <v>52.70091953961286</v>
+        <v>645.7612887485766</v>
       </c>
       <c r="F41" t="n">
-        <v>52.70091953961286</v>
+        <v>234.775383958969</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>234.775383958969</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
         <v>241.3408185533492</v>
@@ -7417,19 +7417,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L41" t="n">
-        <v>784.1365874146478</v>
+        <v>797.5335819773815</v>
       </c>
       <c r="M41" t="n">
-        <v>970.8360002400555</v>
+        <v>1429.251392960693</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7441,22 +7441,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U41" t="n">
-        <v>2381.354273725794</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V41" t="n">
-        <v>2050.291386382223</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.522731112109</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="X41" t="n">
-        <v>1324.056972851029</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1183.354710808729</v>
+        <v>1776.415080017693</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662192</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850922</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D42" t="n">
-        <v>642.735165023841</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183855</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452705</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044924</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H42" t="n">
-        <v>98.605776549297</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
         <v>171.3601713965085</v>
@@ -7496,16 +7496,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L42" t="n">
-        <v>1005.150115568437</v>
+        <v>989.1812241132636</v>
       </c>
       <c r="M42" t="n">
-        <v>1184.647451923042</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7514,10 +7514,10 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T42" t="n">
         <v>2267.477992405552</v>
@@ -7526,13 +7526,13 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W42" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X42" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y42" t="n">
         <v>1134.337940986287</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7593,28 +7593,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.91212829518</v>
       </c>
       <c r="S43" t="n">
-        <v>1052.635600998958</v>
+        <v>795.4718435475855</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>569.8426468599505</v>
       </c>
       <c r="U43" t="n">
-        <v>824.7921286804777</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="V43" t="n">
-        <v>570.1076404745909</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W43" t="n">
         <v>280.6904704376302</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>843.9807226368941</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="C44" t="n">
-        <v>475.0182056964824</v>
+        <v>584.0795566751565</v>
       </c>
       <c r="D44" t="n">
-        <v>116.7525070897319</v>
+        <v>225.813858068406</v>
       </c>
       <c r="E44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.469734737245</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V44" t="n">
-        <v>2050.406847393675</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.63819212356</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X44" t="n">
-        <v>1324.172433862481</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y44" t="n">
-        <v>1230.580562701016</v>
+        <v>953.0420736155681</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J45" t="n">
-        <v>242.8655721052432</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>694.5080954349369</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>996.069658637294</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>1367.334647326684</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N45" t="n">
-        <v>1762.834560448976</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.419918577405</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P45" t="n">
-        <v>2442.262094296974</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2561.609832686965</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1620.178990099906</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C46" t="n">
-        <v>1620.178990099906</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D46" t="n">
-        <v>1470.062350687571</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E46" t="n">
-        <v>1322.149257105178</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F46" t="n">
-        <v>1322.149257105178</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G46" t="n">
-        <v>1277.136702086001</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H46" t="n">
-        <v>1128.638015177032</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I46" t="n">
-        <v>1023.595362106274</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J46" t="n">
-        <v>1050.936669114299</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K46" t="n">
-        <v>1225.703672159708</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>1504.8717004876</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>1809.604367208002</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>2112.525788646646</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>2376.30645508356</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>2578.495702509728</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>2345.929113172993</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V46" t="n">
-        <v>2091.244624967107</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W46" t="n">
-        <v>1801.827454930146</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X46" t="n">
-        <v>1801.827454930146</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y46" t="n">
-        <v>1801.827454930146</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>208.663652289971</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>250.7308605730627</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>167.9634363311155</v>
+        <v>378.0407240669646</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>45.38463668251659</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>279.310601277603</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>458.0981188384286</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>78.07077454018153</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>418.9459514760943</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O20" t="n">
-        <v>194.184117423824</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9485,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>207.4678568043326</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9643,16 +9643,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>194.184117423824</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>80.70566279614604</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N24" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>48.10560617263502</v>
       </c>
       <c r="O27" t="n">
-        <v>347.1032070028238</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,25 +10190,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>103.7276367694162</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>271.7036563660313</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>271.7036563660313</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.166261194686115</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,16 +10670,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>347.1032070028245</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>207.4678568043328</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11065,13 +11065,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>13.532317740135</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>367.1833448539995</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,25 +11381,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>87.50308453612718</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>18.95691945092472</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22609,7 +22609,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.4484560200385</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>269.6785510064358</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>22.5314303951711</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>53.18448021961601</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>149.4414326714929</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.9301262990307</v>
+        <v>230.7910033916859</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>109.0537646632303</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>125.665643939536</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>49.84935747638769</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>236.334360302597</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>71.10419432148814</v>
       </c>
       <c r="I13" t="n">
         <v>123.266557879417</v>
@@ -23466,19 +23466,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>58.3588663945234</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>121.9301572107225</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>311.1890488159332</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>97.75499287105271</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23706,19 +23706,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452337</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>46.60908237999075</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>47.9351120421513</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>91.10195276236153</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.0975365687949</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>107.8472545593374</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>74.50924209911858</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -24022,10 +24022,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>103.5183733163288</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24180,13 +24180,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>157.6673425086549</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>149.1774856623015</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>1.876601110978015</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>36.29689691601249</v>
+        <v>159.6780486328761</v>
       </c>
       <c r="H25" t="n">
         <v>152.7120966692326</v>
@@ -24420,19 +24420,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>263.5637839600938</v>
       </c>
       <c r="I26" t="n">
         <v>118.4960408938903</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>233.6203381347204</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>18.62755109112844</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
         <v>17.69584188176898</v>
@@ -24657,13 +24657,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>53.57061502585941</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>276.078254077281</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.6266944049465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I31" t="n">
-        <v>18.62755109112844</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J31" t="n">
         <v>17.69584188176898</v>
@@ -24894,13 +24894,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>53.57061502585941</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>57.19893253031529</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
@@ -24976,16 +24976,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>229.5645874115935</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25128,22 +25128,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>24.48463555364646</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280186</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.34271647389642</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>115.1962381915678</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>87.63472916947946</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25362,25 +25362,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>125.8172229762635</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>170.1247953107859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>351.6042740274842</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.9207765545704</v>
@@ -25605,19 +25605,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>60.69561706280186</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.4747809135846</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>134.787164300053</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25681,22 +25681,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>246.9426992341767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>79.9469436910515</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>60.69561706280186</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>210.5485609287566</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.4880739292253</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>293.5819862062035</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,22 +26031,22 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>121.717423129319</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1963253168159</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6344114530736</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>202.1860880440719</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378618</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378616</v>
+        <v>493620.544576571</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378616</v>
+        <v>509635.5853000616</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986438</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="F2" t="n">
         <v>252134.9940623532</v>
@@ -26337,25 +26337,25 @@
         <v>252134.9940623532</v>
       </c>
       <c r="J2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="L2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="M2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="N2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="O2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314358</v>
+        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847434</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>98565.03158297982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50480.80391628888</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511372</v>
@@ -26438,7 +26438,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="J4" t="n">
         <v>36133.96051511372</v>
@@ -26453,13 +26453,13 @@
         <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>7416.310118926251</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26502,16 +26502,16 @@
         <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747558</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121148</v>
+        <v>-50417.14319125189</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.29896033629</v>
+        <v>26588.92740361418</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.29896033632</v>
+        <v>12499.892999233</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143566</v>
+        <v>-419088.8864625799</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065759</v>
+        <v>94256.03910301252</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097638</v>
+        <v>156402.7258996616</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097639</v>
+        <v>152588.4185832713</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336095</v>
+        <v>58750.95011913894</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.12348978865</v>
+        <v>157315.9817021188</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26822,16 +26822,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675017</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33529,7 +33529,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U33" t="n">
         <v>0.08398246702897151</v>
@@ -33766,7 +33766,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U36" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>79.07191193225303</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
-        <v>391.4668765743286</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>349.2738770933425</v>
+        <v>559.3511648291917</v>
       </c>
       <c r="N12" t="n">
         <v>200.663375406732</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
         <v>188.5852654802098</v>
@@ -35667,7 +35667,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312129</v>
+        <v>80.72213165382477</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>417.926356849011</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
         <v>658.7614942451606</v>
@@ -35743,7 +35743,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>187.8582770930086</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105733</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>600.2563922383214</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36132,10 +36132,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O20" t="n">
-        <v>366.0720217843892</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36205,19 +36205,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>346.0836123757406</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36363,16 +36363,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M23" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O23" t="n">
-        <v>366.0720217843892</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P23" t="n">
         <v>433.6515619588832</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>262.0161035583731</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N24" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36679,16 +36679,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>248.768981579367</v>
       </c>
       <c r="O27" t="n">
-        <v>508.2267551530871</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927643</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
-        <v>285.0380775316433</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927643</v>
+        <v>381.4911589188584</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37153,19 +37153,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M33" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>381.4911589188584</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M35" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>198.4634459340622</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37390,16 +37390,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>485.7189625742325</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1235481502633</v>
+        <v>515.8337000646585</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
@@ -37548,16 +37548,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>140.7360160012659</v>
+        <v>322.7535243442413</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588832</v>
@@ -37627,19 +37627,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0836123757409</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1235481502633</v>
+        <v>515.8337000646585</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37785,13 +37785,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>154.2683337414009</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37800,7 +37800,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748672</v>
+        <v>493.3259074858033</v>
       </c>
       <c r="M42" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>563.4805295933756</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0855076420508</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>456.2045690198927</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N45" t="n">
-        <v>399.4948617396896</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>343.0155132610399</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>343.274924969261</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431889.0009836452</v>
+        <v>490742.4063030186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840854.495975447</v>
+        <v>3842442.348868397</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10457196.99249323</v>
+        <v>10498891.99518629</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8566164.688334364</v>
+        <v>8545531.187744074</v>
       </c>
     </row>
     <row r="11">
@@ -658,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>21.77847846272549</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>58.07370746369907</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>33.66226958370693</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>146.9483967771029</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0815656650981</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>151.9428382717947</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>38.39130090140846</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>74.86316388281884</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>244.1972729031934</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>170.5416854391145</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643704</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
         <v>99.90681807664345</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>81.60790234774441</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.7440028549677</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>130.2916160025242</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>38.05191990147986</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H15" t="n">
         <v>99.90681807664345</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>69.16578368351773</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>231.9602421584223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>412.9169039459368</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>70.56092885173899</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>58.58880285353593</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>88.73002741957576</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>159.6820259933259</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>248.1984952240921</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>246.8357870613455</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>57.8383143988228</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>94.47030081517305</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>313.1642829642375</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>17.36668124542063</v>
       </c>
     </row>
     <row r="24">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.242727921694335</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>254.5921198768585</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>353.7663865058017</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>51.47710011512173</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>232.6900396322376</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>132.9606303068365</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>211.7352080000846</v>
       </c>
       <c r="C29" t="n">
-        <v>89.19463769372649</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>118.4960408938903</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.5521637889312</v>
       </c>
       <c r="U31" t="n">
-        <v>232.6900396322376</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7156431770847</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>119.6763813058195</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>225.5650375952951</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>15.99481237826507</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.7119997897691</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>297.720665754369</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>16.71980617716605</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.55568174449517</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>30.32609604477764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>268.5214674677212</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>151.0482174230064</v>
+        <v>78.83302298974763</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>27.16229776081211</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>180.2537197751626</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.22623797673981</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>39.25292637798727</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>34.63366462856984</v>
       </c>
       <c r="E44" t="n">
-        <v>171.3818091435052</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>159.1711696817093</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.39856530802294</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>266.5980815799443</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.56501858889139</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.56501858889139</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>819.3245181314433</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>819.3245181314433</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>819.3245181314433</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>760.6642075620503</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>428.3260316108859</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C6" t="n">
-        <v>428.3260316108859</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="D6" t="n">
-        <v>279.3916219496347</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="E6" t="n">
-        <v>279.3916219496347</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="F6" t="n">
-        <v>132.8570639765196</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="G6" t="n">
-        <v>132.8570639765196</v>
+        <v>53.28343561900761</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>377.8476075409624</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>481.6032601595282</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>804.9818487541377</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>656.549124736862</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>428.3260316108859</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>428.3260316108859</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>428.3260316108859</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X6" t="n">
-        <v>428.3260316108859</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y6" t="n">
-        <v>428.3260316108859</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136273</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415462</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668868</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668868</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>444.5765064295815</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>444.5765064295815</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>444.5765064295815</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>470.6429706088516</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C9" t="n">
-        <v>470.6429706088516</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>431.8638787892471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>272.6264237837916</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>272.6264237837916</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>133.9455988548061</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>339.9440834239264</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360766</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285688</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>880.4795283993085</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>678.4944708143844</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>678.4944708143844</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="V9" t="n">
-        <v>678.4944708143844</v>
+        <v>411.6643294155641</v>
       </c>
       <c r="W9" t="n">
-        <v>678.4944708143844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="X9" t="n">
-        <v>470.6429706088516</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y9" t="n">
-        <v>470.6429706088516</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1071.886434413042</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="C11" t="n">
-        <v>702.9239174726308</v>
+        <v>1333.535623108069</v>
       </c>
       <c r="D11" t="n">
-        <v>344.6582188658803</v>
+        <v>975.2699245013189</v>
       </c>
       <c r="E11" t="n">
-        <v>344.6582188658803</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F11" t="n">
-        <v>172.393890139502</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G11" t="n">
         <v>172.393890139502</v>
@@ -5044,22 +5044,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>448.0130853828225</v>
       </c>
       <c r="L11" t="n">
-        <v>683.1408478992852</v>
+        <v>587.3417412240757</v>
       </c>
       <c r="M11" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N11" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2166.554411993505</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V11" t="n">
-        <v>1835.491524649934</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W11" t="n">
-        <v>1835.491524649934</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X11" t="n">
-        <v>1462.025766388854</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="Y11" t="n">
-        <v>1071.886434413042</v>
+        <v>1580.199535131497</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E12" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F12" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
         <v>199.5217544044918</v>
@@ -5120,25 +5120,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L12" t="n">
-        <v>886.4908637115414</v>
+        <v>843.4113519543016</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.248516892441</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
         <v>2635.045976980643</v>
@@ -5159,10 +5159,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
         <v>1134.337940986287</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>619.566119563728</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C13" t="n">
-        <v>450.6299366358211</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D13" t="n">
-        <v>450.6299366358211</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E13" t="n">
-        <v>450.6299366358211</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F13" t="n">
-        <v>303.7399891379107</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>135.1331441332941</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
         <v>52.70091953961285</v>
@@ -5226,25 +5226,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U13" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V13" t="n">
-        <v>619.566119563728</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W13" t="n">
-        <v>619.566119563728</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="X13" t="n">
-        <v>619.566119563728</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="Y13" t="n">
-        <v>619.566119563728</v>
+        <v>369.5501960499129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>880.774606092793</v>
+        <v>1058.752352610001</v>
       </c>
       <c r="C14" t="n">
-        <v>880.774606092793</v>
+        <v>689.7898356695889</v>
       </c>
       <c r="D14" t="n">
-        <v>880.774606092793</v>
+        <v>689.7898356695889</v>
       </c>
       <c r="E14" t="n">
-        <v>880.774606092793</v>
+        <v>304.0015830713447</v>
       </c>
       <c r="F14" t="n">
-        <v>469.7887013031854</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I14" t="n">
         <v>52.70091953961285</v>
@@ -5284,19 +5284,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M14" t="n">
-        <v>1384.320602645002</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N14" t="n">
-        <v>1578.654815536984</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O14" t="n">
-        <v>2125.816020304062</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P14" t="n">
-        <v>2555.131066643356</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q14" t="n">
         <v>2635.045976980643</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U14" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V14" t="n">
-        <v>1679.276487146762</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W14" t="n">
-        <v>1640.840204417995</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X14" t="n">
-        <v>1267.374446156915</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y14" t="n">
-        <v>1267.374446156915</v>
+        <v>1445.352192674122</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183844</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452695</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K15" t="n">
-        <v>238.9679910598653</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L15" t="n">
-        <v>376.1975890755593</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.742938542664</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N15" t="n">
-        <v>1668.916817845373</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.352826598096</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
         <v>2613.934077382829</v>
@@ -5390,19 +5390,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V15" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.3683885830656</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C16" t="n">
-        <v>417.3683885830656</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D16" t="n">
-        <v>417.3683885830656</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E16" t="n">
-        <v>269.4552950006724</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F16" t="n">
-        <v>122.5653475027621</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
         <v>52.70091953961285</v>
@@ -5466,22 +5466,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V16" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W16" t="n">
-        <v>827.0064043113226</v>
+        <v>818.3323260914603</v>
       </c>
       <c r="X16" t="n">
-        <v>599.0168534133053</v>
+        <v>590.342775193443</v>
       </c>
       <c r="Y16" t="n">
-        <v>599.0168534133053</v>
+        <v>369.5501960499129</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1679.276487146762</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="C17" t="n">
-        <v>1310.31397020635</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D17" t="n">
-        <v>952.0482715996</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E17" t="n">
-        <v>952.0482715996</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F17" t="n">
-        <v>541.0623668099925</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
-        <v>123.9745850464199</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
-        <v>123.9745850464199</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.36013938198</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207387</v>
+        <v>803.4303512197024</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T17" t="n">
-        <v>2264.031077745182</v>
+        <v>2575.865368037677</v>
       </c>
       <c r="U17" t="n">
-        <v>2010.339374490333</v>
+        <v>2322.173664782828</v>
       </c>
       <c r="V17" t="n">
-        <v>1679.276487146762</v>
+        <v>2322.173664782828</v>
       </c>
       <c r="W17" t="n">
-        <v>1679.276487146762</v>
+        <v>1969.405009512714</v>
       </c>
       <c r="X17" t="n">
-        <v>1679.276487146762</v>
+        <v>1969.405009512714</v>
       </c>
       <c r="Y17" t="n">
-        <v>1679.276487146762</v>
+        <v>1969.405009512714</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>382.1293238454225</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>886.4908637115411</v>
+        <v>799.7031674253365</v>
       </c>
       <c r="M18" t="n">
-        <v>1065.988200066146</v>
+        <v>1440.248516892441</v>
       </c>
       <c r="N18" t="n">
-        <v>1430.928743686615</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R18" t="n">
         <v>2613.934077382829</v>
@@ -5627,7 +5627,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
@@ -5639,7 +5639,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>673.5921406391932</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C19" t="n">
-        <v>673.5921406391932</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D19" t="n">
-        <v>523.4755012268574</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E19" t="n">
-        <v>375.5624076444644</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F19" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V19" t="n">
-        <v>1052.635600998958</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W19" t="n">
-        <v>763.218430961997</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="X19" t="n">
-        <v>763.218430961997</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="Y19" t="n">
-        <v>763.218430961997</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>719.1177791429284</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="C20" t="n">
-        <v>719.1177791429284</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="D20" t="n">
-        <v>469.7887013031854</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E20" t="n">
-        <v>469.7887013031854</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F20" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G20" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
         <v>52.70091953961285</v>
@@ -5752,25 +5752,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>241.3408185533492</v>
+        <v>198.7565373983365</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8079315733946</v>
+        <v>602.223650418382</v>
       </c>
       <c r="L20" t="n">
-        <v>784.1365874146478</v>
+        <v>741.5523062596352</v>
       </c>
       <c r="M20" t="n">
-        <v>970.8360002400555</v>
+        <v>1373.270117242947</v>
       </c>
       <c r="N20" t="n">
-        <v>1413.39376509937</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O20" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P20" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5791,13 +5791,13 @@
         <v>1835.491524649934</v>
       </c>
       <c r="W20" t="n">
-        <v>1482.72286937982</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X20" t="n">
-        <v>1109.25711111874</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y20" t="n">
-        <v>719.1177791429284</v>
+        <v>1835.491524649934</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5840,16 +5840,16 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1232.27200203395</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N21" t="n">
-        <v>1430.928743686615</v>
+        <v>2028.828954629068</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P21" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.6371024675198</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
         <v>52.70091953961285</v>
@@ -5937,25 +5937,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T22" t="n">
-        <v>827.0064043113226</v>
+        <v>786.7727764545723</v>
       </c>
       <c r="U22" t="n">
-        <v>537.8542278890025</v>
+        <v>497.620600032252</v>
       </c>
       <c r="V22" t="n">
-        <v>442.4296816110499</v>
+        <v>497.620600032252</v>
       </c>
       <c r="W22" t="n">
-        <v>442.4296816110499</v>
+        <v>497.620600032252</v>
       </c>
       <c r="X22" t="n">
-        <v>442.4296816110499</v>
+        <v>497.620600032252</v>
       </c>
       <c r="Y22" t="n">
-        <v>221.6371024675198</v>
+        <v>497.620600032252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1702.583387840661</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C23" t="n">
-        <v>1702.583387840661</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D23" t="n">
-        <v>1702.583387840661</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E23" t="n">
-        <v>1316.795135242417</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F23" t="n">
-        <v>905.8092304528095</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G23" t="n">
-        <v>488.721448689237</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H23" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I23" t="n">
         <v>52.70091953961285</v>
@@ -5995,16 +5995,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207387</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N23" t="n">
-        <v>1413.39376509937</v>
+        <v>2043.162066457806</v>
       </c>
       <c r="O23" t="n">
-        <v>1960.554969866447</v>
+        <v>2213.331091774766</v>
       </c>
       <c r="P23" t="n">
         <v>2389.870016205742</v>
@@ -6016,25 +6016,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S23" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T23" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U23" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V23" t="n">
-        <v>2089.183227904783</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W23" t="n">
-        <v>2089.183227904783</v>
+        <v>1657.570719220219</v>
       </c>
       <c r="X23" t="n">
-        <v>2089.183227904783</v>
+        <v>1284.104960959139</v>
       </c>
       <c r="Y23" t="n">
-        <v>2089.183227904783</v>
+        <v>1266.562858691037</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D24" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183844</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452695</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044913</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961304</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965087</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023186</v>
       </c>
       <c r="L24" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180126</v>
       </c>
       <c r="M24" t="n">
-        <v>1232.27200203395</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N24" t="n">
-        <v>1430.928743686615</v>
+        <v>1930.737402487826</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.364752439338</v>
+        <v>2090.249715156587</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920174</v>
+        <v>2514.217483637424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,19 +6101,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G25" t="n">
         <v>52.70091953961285</v>
@@ -6177,22 +6177,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U25" t="n">
-        <v>763.4834245766374</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V25" t="n">
-        <v>508.7989363707505</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="W25" t="n">
-        <v>508.7989363707505</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
-        <v>280.8093854727332</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.01680632920309</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1676.825628121143</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="C26" t="n">
-        <v>1676.825628121143</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="D26" t="n">
-        <v>1318.559929514392</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="E26" t="n">
-        <v>932.7716769161482</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="F26" t="n">
-        <v>521.7857721265407</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G26" t="n">
-        <v>104.6979903629681</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6232,19 +6232,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>784.1365874146478</v>
+        <v>1174.5257614275</v>
       </c>
       <c r="M26" t="n">
-        <v>970.8360002400555</v>
+        <v>1806.243572410812</v>
       </c>
       <c r="N26" t="n">
-        <v>1413.39376509937</v>
+        <v>2000.577785302794</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P26" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q26" t="n">
         <v>2635.045976980643</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T26" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U26" t="n">
-        <v>2381.354273725794</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V26" t="n">
-        <v>2050.291386382223</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W26" t="n">
-        <v>2050.291386382223</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X26" t="n">
-        <v>1676.825628121143</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1676.825628121143</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D27" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.647451923041</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686615</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.70091953961285</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U28" t="n">
-        <v>817.5951569259904</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V28" t="n">
-        <v>562.9106687201036</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W28" t="n">
-        <v>273.4934986831429</v>
+        <v>537.5892342743621</v>
       </c>
       <c r="X28" t="n">
-        <v>273.4934986831429</v>
+        <v>537.5892342743621</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.70091953961285</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>938.9782976037698</v>
+        <v>1327.433746134104</v>
       </c>
       <c r="C29" t="n">
-        <v>848.882703973743</v>
+        <v>1327.433746134104</v>
       </c>
       <c r="D29" t="n">
-        <v>490.6170053669925</v>
+        <v>969.1680475273538</v>
       </c>
       <c r="E29" t="n">
-        <v>490.6170053669925</v>
+        <v>583.3797949291096</v>
       </c>
       <c r="F29" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G29" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H29" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
@@ -6472,13 +6472,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M29" t="n">
-        <v>1219.059552207387</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N29" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P29" t="n">
         <v>2389.870016205742</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U29" t="n">
-        <v>2420.246115248354</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V29" t="n">
-        <v>2089.183227904783</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W29" t="n">
-        <v>2089.183227904783</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.717469643703</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y29" t="n">
-        <v>1325.578137667891</v>
+        <v>1541.307693608937</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D30" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K30" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L30" t="n">
-        <v>638.0181737180121</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.563523185117</v>
+        <v>1168.678560467869</v>
       </c>
       <c r="N30" t="n">
-        <v>1477.220264837782</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O30" t="n">
-        <v>2026.656273590504</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6645,28 +6645,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S31" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T31" t="n">
-        <v>1052.635600998958</v>
+        <v>818.5695954871167</v>
       </c>
       <c r="U31" t="n">
-        <v>817.5951569259904</v>
+        <v>818.5695954871167</v>
       </c>
       <c r="V31" t="n">
-        <v>562.9106687201036</v>
+        <v>818.5695954871167</v>
       </c>
       <c r="W31" t="n">
-        <v>273.4934986831429</v>
+        <v>529.1524254501561</v>
       </c>
       <c r="X31" t="n">
-        <v>273.4934986831429</v>
+        <v>529.1524254501561</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.70091953961285</v>
+        <v>529.1524254501561</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1207.740775534215</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="C32" t="n">
-        <v>1207.740775534215</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="D32" t="n">
-        <v>849.4750769274647</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E32" t="n">
-        <v>463.6868243292204</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F32" t="n">
-        <v>52.70091953961285</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K32" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.36013938198</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M32" t="n">
-        <v>1219.059552207387</v>
+        <v>1094.950439952506</v>
       </c>
       <c r="N32" t="n">
-        <v>1413.39376509937</v>
+        <v>1722.258108012353</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W32" t="n">
-        <v>2357.945705835229</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X32" t="n">
-        <v>1984.479947574149</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y32" t="n">
-        <v>1594.340615598337</v>
+        <v>1911.262422475068</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D33" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L33" t="n">
-        <v>638.0181737180121</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M33" t="n">
-        <v>1278.563523185117</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N33" t="n">
-        <v>1477.220264837782</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O33" t="n">
-        <v>2026.656273590504</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.70091953961285</v>
+        <v>519.3374975389584</v>
       </c>
       <c r="C34" t="n">
-        <v>52.70091953961285</v>
+        <v>519.3374975389584</v>
       </c>
       <c r="D34" t="n">
-        <v>52.70091953961285</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6891,19 +6891,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>824.7921286804777</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>570.1076404745909</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W34" t="n">
-        <v>280.6904704376302</v>
+        <v>747.3270484369757</v>
       </c>
       <c r="X34" t="n">
-        <v>52.70091953961285</v>
+        <v>519.3374975389584</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.70091953961285</v>
+        <v>519.3374975389584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1877.43123768106</v>
+        <v>880.774606092793</v>
       </c>
       <c r="C35" t="n">
-        <v>1508.468720740648</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D35" t="n">
-        <v>1150.203022133898</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E35" t="n">
-        <v>764.4147695356537</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F35" t="n">
-        <v>353.4288647460461</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G35" t="n">
         <v>52.70091953961285</v>
@@ -6937,25 +6937,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>784.1365874146478</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M35" t="n">
-        <v>970.8360002400555</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N35" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U35" t="n">
-        <v>2264.031077745182</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V35" t="n">
-        <v>2264.031077745182</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W35" t="n">
-        <v>2264.031077745182</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X35" t="n">
-        <v>2264.031077745182</v>
+        <v>1440.319998462311</v>
       </c>
       <c r="Y35" t="n">
-        <v>2264.031077745182</v>
+        <v>1050.180666486499</v>
       </c>
     </row>
     <row r="36">
@@ -7025,10 +7025,10 @@
         <v>638.0181737180123</v>
       </c>
       <c r="M36" t="n">
-        <v>817.5155100726172</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N36" t="n">
-        <v>1469.689389375326</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O36" t="n">
         <v>1980.364752439338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202.8175589519486</v>
+        <v>388.3130970648137</v>
       </c>
       <c r="C37" t="n">
-        <v>202.8175589519486</v>
+        <v>388.3130970648137</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961285</v>
+        <v>238.196457652478</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961285</v>
+        <v>238.196457652478</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G37" t="n">
         <v>52.70091953961285</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>746.6542235801558</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>457.5020471578355</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>202.8175589519486</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W37" t="n">
-        <v>202.8175589519486</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="X37" t="n">
-        <v>202.8175589519486</v>
+        <v>569.9615618950535</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.8175589519486</v>
+        <v>569.9615618950535</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C38" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D38" t="n">
-        <v>1349.323112167423</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E38" t="n">
-        <v>1318.690691920173</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I38" t="n">
         <v>52.70091953961285</v>
@@ -7180,16 +7180,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>964.3339206741936</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M38" t="n">
-        <v>1596.051731657505</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N38" t="n">
-        <v>1790.385944549488</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P38" t="n">
         <v>2389.870016205742</v>
@@ -7204,22 +7204,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W38" t="n">
-        <v>2126.062284207356</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X38" t="n">
-        <v>2126.062284207356</v>
+        <v>1537.796664213988</v>
       </c>
       <c r="Y38" t="n">
-        <v>1735.922952231545</v>
+        <v>1266.562858691037</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7253,25 +7253,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K39" t="n">
-        <v>500.7885757023184</v>
+        <v>231.7481859931359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.0181737180123</v>
+        <v>736.1097258592545</v>
       </c>
       <c r="M39" t="n">
-        <v>817.5155100726172</v>
+        <v>1376.655075326359</v>
       </c>
       <c r="N39" t="n">
-        <v>1469.689389375326</v>
+        <v>2028.828954629068</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>497.620600032252</v>
+        <v>842.5283235671001</v>
       </c>
       <c r="C40" t="n">
-        <v>497.620600032252</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="D40" t="n">
-        <v>347.5039606199163</v>
+        <v>523.4755012268574</v>
       </c>
       <c r="E40" t="n">
-        <v>199.5908670375232</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961285</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H40" t="n">
         <v>52.70091953961285</v>
@@ -7356,28 +7356,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R40" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S40" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U40" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V40" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="W40" t="n">
-        <v>900.0616440060219</v>
+        <v>842.5283235671001</v>
       </c>
       <c r="X40" t="n">
-        <v>900.0616440060219</v>
+        <v>842.5283235671001</v>
       </c>
       <c r="Y40" t="n">
-        <v>679.2690648624917</v>
+        <v>842.5283235671001</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1389.815239953571</v>
+        <v>1532.065767735671</v>
       </c>
       <c r="C41" t="n">
-        <v>1389.815239953571</v>
+        <v>1532.065767735671</v>
       </c>
       <c r="D41" t="n">
-        <v>1031.549541346821</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E41" t="n">
-        <v>645.7612887485766</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F41" t="n">
-        <v>234.775383958969</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G41" t="n">
-        <v>234.775383958969</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H41" t="n">
         <v>52.70091953961285</v>
@@ -7414,22 +7414,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>365.1541470576843</v>
       </c>
       <c r="L41" t="n">
-        <v>797.5335819773815</v>
+        <v>917.9674053038835</v>
       </c>
       <c r="M41" t="n">
-        <v>1429.251392960693</v>
+        <v>1104.666818129291</v>
       </c>
       <c r="N41" t="n">
-        <v>1623.585605852676</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O41" t="n">
-        <v>2170.746810619753</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P41" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7438,25 +7438,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U41" t="n">
-        <v>2166.554411993505</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V41" t="n">
-        <v>2166.554411993505</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W41" t="n">
-        <v>2166.554411993505</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="X41" t="n">
-        <v>2166.554411993505</v>
+        <v>1559.502432140531</v>
       </c>
       <c r="Y41" t="n">
-        <v>1776.415080017693</v>
+        <v>1559.502432140531</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L42" t="n">
-        <v>989.1812241132636</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M42" t="n">
-        <v>1168.678560467868</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N42" t="n">
-        <v>1820.852439770578</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439338</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P42" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F43" t="n">
         <v>52.70091953961285</v>
@@ -7593,28 +7593,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>1002.91212829518</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S43" t="n">
-        <v>795.4718435475855</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T43" t="n">
-        <v>569.8426468599505</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U43" t="n">
-        <v>280.6904704376302</v>
+        <v>675.0679343869401</v>
       </c>
       <c r="V43" t="n">
-        <v>280.6904704376302</v>
+        <v>420.3834461810533</v>
       </c>
       <c r="W43" t="n">
-        <v>280.6904704376302</v>
+        <v>420.3834461810533</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961285</v>
+        <v>420.3834461810533</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>953.0420736155681</v>
+        <v>1739.462444143235</v>
       </c>
       <c r="C44" t="n">
-        <v>584.0795566751565</v>
+        <v>1739.462444143235</v>
       </c>
       <c r="D44" t="n">
-        <v>225.813858068406</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E44" t="n">
-        <v>52.70091953961285</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F44" t="n">
-        <v>52.70091953961285</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>241.3408185533492</v>
+        <v>198.756537398337</v>
       </c>
       <c r="K44" t="n">
-        <v>644.8079315733946</v>
+        <v>602.2236504183825</v>
       </c>
       <c r="L44" t="n">
-        <v>1197.621189819594</v>
+        <v>741.5523062596357</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.320602645002</v>
+        <v>1373.270117242947</v>
       </c>
       <c r="N44" t="n">
-        <v>1942.166326942443</v>
+        <v>2000.577785302794</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7678,22 +7678,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V44" t="n">
-        <v>1679.276487146762</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W44" t="n">
-        <v>1326.507831876648</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="X44" t="n">
-        <v>953.0420736155681</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="Y44" t="n">
-        <v>953.0420736155681</v>
+        <v>2126.062284207357</v>
       </c>
     </row>
     <row r="45">
@@ -7718,31 +7718,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L45" t="n">
-        <v>1005.150115568437</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M45" t="n">
-        <v>1232.27200203395</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.928743686615</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.364752439338</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P45" t="n">
         <v>2404.332520920175</v>
@@ -7751,7 +7751,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
         <v>2464.467288245464</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>202.8175589519486</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="C46" t="n">
-        <v>202.8175589519486</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961285</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E46" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7836,22 +7836,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>763.4834245766374</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V46" t="n">
-        <v>508.7989363707505</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W46" t="n">
-        <v>219.3817663337899</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="X46" t="n">
-        <v>219.3817663337899</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.8175589519486</v>
+        <v>666.2274450368687</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>140.1317786452013</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>234.0901525809383</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>208.663652289971</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>294.4593548234687</v>
       </c>
       <c r="L11" t="n">
-        <v>391.2261292428723</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>207.4678568043326</v>
       </c>
       <c r="M12" t="n">
-        <v>378.0407240669646</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>194.184117423824</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.38463668251659</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>78.07077454018153</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>419.8274757451364</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>283.176005620424</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>126.0821897629701</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,19 +9409,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>250.7308605730627</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>186.3401494352142</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9643,19 +9643,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>66.46929210247404</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>48.10560617263482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.08237590024419</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,22 +9880,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>394.3324990028807</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9959,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>418.9459514760948</v>
       </c>
       <c r="N27" t="n">
-        <v>48.10560617263502</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>250.7308605730627</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10199,16 +10199,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>354.7101519143957</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>271.7036563660313</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>68.81599650215651</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10433,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>441.9679254493653</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>271.7036563660313</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7308605730627</v>
+        <v>410.9118391044057</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,13 +10673,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>354.7101519143952</v>
+        <v>347.103207002824</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10828,25 +10828,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>182.0175083429755</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>154.8683541940946</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>112.5650977678445</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O39" t="n">
-        <v>354.7101519143952</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>41.66684235327551</v>
       </c>
       <c r="L41" t="n">
-        <v>13.532317740135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>354.7101519143952</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384286</v>
+        <v>375.4058358110003</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>126.0821897629705</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>367.1833448539995</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>78.07077454018199</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,19 +22600,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22637,7 +22637,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>123.2907339306584</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138.1711093023382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>137.3676377111194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>269.6785510064358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>125.1683683173266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>78.57317465278953</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.18448021961601</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>149.4414326714929</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.7910033916859</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900446</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>109.0537646632303</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23156,16 +23156,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>151.078218198156</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,19 +23260,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>121.0756188678142</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>236.334360302597</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>71.10419432148814</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>123.266557879417</v>
@@ -23466,7 +23466,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>85.77899548162333</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>276.5844297391873</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>311.1890488159332</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>97.75499287105271</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23706,7 +23706,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>54.56275617816866</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>47.9351120421513</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>154.0630602614301</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>91.10195276236153</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23946,13 +23946,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>134.5353464393884</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>107.8472545593374</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24177,16 +24177,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>165.5345903219359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>157.6673425086549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.876601110978015</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>368.8712574106329</v>
       </c>
     </row>
     <row r="24">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>159.6780486328761</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
         <v>152.7120966692326</v>
@@ -24417,22 +24417,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>31.9308784597325</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>28.9674551576789</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>263.5637839600938</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24654,13 +24654,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>53.57061502585941</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>85.62402304525824</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>170.998633663396</v>
       </c>
       <c r="C29" t="n">
-        <v>276.078254077281</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>120.8207409318275</v>
       </c>
       <c r="U31" t="n">
-        <v>53.57061502585941</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>178.0181984863958</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>229.5645874115935</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25131,13 +25131,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>60.69561706280186</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>270.5281859583259</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.0218418737115</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>115.1962381915678</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>128.7012418457652</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25362,13 +25362,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>125.8172229762635</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>351.6042740274842</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>117.7164711883324</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>123.266557879417</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>205.3658819001186</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>135.4747809135846</v>
+        <v>207.6899753468434</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>355.5715439026685</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>134.787164300053</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.9207765545704</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.9469436910515</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>247.0077282801097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>320.0493769921131</v>
       </c>
       <c r="E44" t="n">
-        <v>210.5485609287566</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>152.7120966692326</v>
@@ -26076,22 +26076,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>127.3518286548817</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.1860880440719</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493620.544576571</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509635.5853000616</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="F2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="H2" t="n">
         <v>252134.9940623532</v>
@@ -26343,16 +26343,16 @@
         <v>252134.9940623532</v>
       </c>
       <c r="L2" t="n">
+        <v>252134.9940623532</v>
+      </c>
+      <c r="M2" t="n">
         <v>252134.9940623531</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>252134.9940623532</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>252134.9940623531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>252134.9940623532</v>
       </c>
       <c r="P2" t="n">
         <v>252134.9940623532</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>576404.8681646985</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98565.03158297982</v>
+        <v>104104.2745664028</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="D4" t="n">
         <v>50385.00392753458</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50404.27455704983</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50480.80391628888</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511372</v>
@@ -26438,16 +26438,16 @@
         <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
         <v>36133.96051511372</v>
@@ -26459,7 +26459,7 @@
         <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511374</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26493,13 +26493,13 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
         <v>52990.47783747558</v>
@@ -26511,7 +26511,7 @@
         <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125189</v>
+        <v>-39420.93363321549</v>
       </c>
       <c r="C6" t="n">
-        <v>26588.92740361418</v>
+        <v>41348.49789833227</v>
       </c>
       <c r="D6" t="n">
-        <v>12499.892999233</v>
+        <v>41348.49789833223</v>
       </c>
       <c r="E6" t="n">
-        <v>-419088.8864625799</v>
+        <v>-439089.5062151211</v>
       </c>
       <c r="F6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="G6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="H6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="I6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="J6" t="n">
-        <v>94256.03910301252</v>
+        <v>99381.15570989309</v>
       </c>
       <c r="K6" t="n">
-        <v>156402.7258996616</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="L6" t="n">
-        <v>152588.4185832713</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="M6" t="n">
-        <v>58750.95011913894</v>
+        <v>58336.82374259648</v>
       </c>
       <c r="N6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="O6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="P6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,13 +26813,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
         <v>658.7614942451606</v>
@@ -26831,7 +26831,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512754</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33766,7 +33766,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T36" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U36" t="n">
         <v>0.08398246702897151</v>
@@ -34477,7 +34477,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
         <v>0.08398246702897151</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8036895137028</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>79.07191193225303</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292157</v>
+        <v>377.8564806563903</v>
       </c>
       <c r="L11" t="n">
-        <v>531.9621452441381</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>346.0836123757406</v>
       </c>
       <c r="M12" t="n">
-        <v>559.3511648291917</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>382.7693829040338</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P14" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.72213165382477</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>187.8582770930086</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M17" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>616.1246604845126</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35968,13 +35968,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>421.7917611918321</v>
       </c>
       <c r="M18" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -35983,7 +35983,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>147.5309271300239</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040863</v>
@@ -36129,19 +36129,19 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>447.0280453124388</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>387.0035248419462</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>178.3221458898746</v>
       </c>
       <c r="Q23" t="n">
         <v>247.6524856312129</v>
@@ -36442,22 +36442,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M24" t="n">
-        <v>229.4160469348619</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P24" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>122.0489831749684</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,22 +36600,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>140.7360160012659</v>
+        <v>535.0685150041465</v>
       </c>
       <c r="M26" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N26" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P26" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3104407622271</v>
+        <v>600.2563922383218</v>
       </c>
       <c r="N27" t="n">
-        <v>248.768981579367</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36837,7 +36837,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>391.4668765743286</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M29" t="n">
         <v>188.5852654802098</v>
@@ -36919,16 +36919,16 @@
         <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>536.0205926766228</v>
       </c>
       <c r="N30" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O30" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P30" t="n">
-        <v>381.4911589188584</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37071,19 +37071,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L32" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>552.6880856233105</v>
+        <v>240.7039008627217</v>
       </c>
       <c r="P32" t="n">
         <v>433.6515619588832</v>
@@ -37153,19 +37153,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>642.6313008560974</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
-        <v>381.4911589188584</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>447.0280453124388</v>
+        <v>607.2090238437818</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O36" t="n">
-        <v>515.8337000646585</v>
+        <v>508.2267551530873</v>
       </c>
       <c r="P36" t="n">
         <v>428.2502711927643</v>
@@ -37548,19 +37548,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>322.7535243442413</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>351.1655389334708</v>
       </c>
       <c r="O38" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
         <v>247.6524856312129</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>180.8558247005283</v>
       </c>
       <c r="L39" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O39" t="n">
-        <v>515.8337000646585</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P39" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>125.0639681861971</v>
       </c>
       <c r="L41" t="n">
-        <v>154.2683337414009</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>493.3259074858033</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451606</v>
+        <v>576.0692112177323</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5453525391276</v>
+        <v>147.5309271300244</v>
       </c>
       <c r="K44" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>563.4805295933756</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
         <v>35.33749497130819</v>
@@ -38098,22 +38098,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M45" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>187.8582770930091</v>
       </c>
       <c r="Q45" t="n">
         <v>233.0438950105733</v>
